--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -11068,7 +11068,7 @@
         <v>2025</v>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>2025</v>
       </c>
       <c r="B464" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>2025</v>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>2025</v>
       </c>
       <c r="B467" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>2025</v>
       </c>
       <c r="B470" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>2025</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>2025</v>
       </c>
       <c r="B475" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -8678,7 +8678,7 @@
         <v>2025</v>
       </c>
       <c r="B483">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C483" t="s">
         <v>11</v>
@@ -8763,7 +8763,7 @@
         <v>2025</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="s">
         <v>11</v>
@@ -8814,7 +8814,7 @@
         <v>2025</v>
       </c>
       <c r="B491">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -8627,7 +8627,7 @@
         <v>2025</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C480" t="s">
         <v>11</v>
@@ -8729,7 +8729,7 @@
         <v>2025</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
@@ -8814,7 +8814,7 @@
         <v>2025</v>
       </c>
       <c r="B491">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -8678,7 +8678,7 @@
         <v>2025</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C483" t="s">
         <v>11</v>
@@ -8729,7 +8729,7 @@
         <v>2025</v>
       </c>
       <c r="B486">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
@@ -8746,7 +8746,7 @@
         <v>2025</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C487" t="s">
         <v>11</v>
@@ -8814,7 +8814,7 @@
         <v>2025</v>
       </c>
       <c r="B491">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>
@@ -8831,7 +8831,7 @@
         <v>2025</v>
       </c>
       <c r="B492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="s">
         <v>11</v>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="34">
   <si>
     <t>Año</t>
   </si>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8627,7 +8627,7 @@
         <v>2025</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C480" t="s">
         <v>11</v>
@@ -8644,7 +8644,7 @@
         <v>2025</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C481" t="s">
         <v>11</v>
@@ -8678,7 +8678,7 @@
         <v>2025</v>
       </c>
       <c r="B483">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C483" t="s">
         <v>11</v>
@@ -8712,7 +8712,7 @@
         <v>2025</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C485" t="s">
         <v>11</v>
@@ -8729,7 +8729,7 @@
         <v>2025</v>
       </c>
       <c r="B486">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
@@ -8814,7 +8814,7 @@
         <v>2025</v>
       </c>
       <c r="B491">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>
@@ -8874,6 +8874,278 @@
         <v>29</v>
       </c>
       <c r="E494" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495">
+        <v>2025</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495" t="s">
+        <v>17</v>
+      </c>
+      <c r="E495" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496">
+        <v>2025</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496" t="s">
+        <v>18</v>
+      </c>
+      <c r="E496" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497">
+        <v>2025</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497" t="s">
+        <v>12</v>
+      </c>
+      <c r="D497" t="s">
+        <v>19</v>
+      </c>
+      <c r="E497" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498">
+        <v>2025</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" t="s">
+        <v>20</v>
+      </c>
+      <c r="E498" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499">
+        <v>2025</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" t="s">
+        <v>21</v>
+      </c>
+      <c r="E499" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500">
+        <v>2025</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500" t="s">
+        <v>22</v>
+      </c>
+      <c r="E500" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501">
+        <v>2025</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501" t="s">
+        <v>23</v>
+      </c>
+      <c r="E501" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502">
+        <v>2025</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502" t="s">
+        <v>12</v>
+      </c>
+      <c r="D502" t="s">
+        <v>24</v>
+      </c>
+      <c r="E502" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503">
+        <v>2025</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503" t="s">
+        <v>12</v>
+      </c>
+      <c r="D503" t="s">
+        <v>25</v>
+      </c>
+      <c r="E503" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504">
+        <v>2025</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504" t="s">
+        <v>12</v>
+      </c>
+      <c r="D504" t="s">
+        <v>30</v>
+      </c>
+      <c r="E504" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505">
+        <v>2025</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D505" t="s">
+        <v>31</v>
+      </c>
+      <c r="E505" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506">
+        <v>2025</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506" t="s">
+        <v>12</v>
+      </c>
+      <c r="D506" t="s">
+        <v>32</v>
+      </c>
+      <c r="E506" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507">
+        <v>2025</v>
+      </c>
+      <c r="B507">
+        <v>12</v>
+      </c>
+      <c r="C507" t="s">
+        <v>12</v>
+      </c>
+      <c r="D507" t="s">
+        <v>26</v>
+      </c>
+      <c r="E507" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508">
+        <v>2025</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508" t="s">
+        <v>12</v>
+      </c>
+      <c r="D508" t="s">
+        <v>27</v>
+      </c>
+      <c r="E508" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509">
+        <v>2025</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D509" t="s">
+        <v>28</v>
+      </c>
+      <c r="E509" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510">
+        <v>2025</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510" t="s">
+        <v>29</v>
+      </c>
+      <c r="E510" t="s">
         <v>33</v>
       </c>
     </row>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -8899,7 +8899,7 @@
         <v>2025</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C496" t="s">
         <v>12</v>
@@ -8950,7 +8950,7 @@
         <v>2025</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C499" t="s">
         <v>12</v>
@@ -8967,7 +8967,7 @@
         <v>2025</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="s">
         <v>12</v>
@@ -9001,7 +9001,7 @@
         <v>2025</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C502" t="s">
         <v>12</v>
@@ -9035,7 +9035,7 @@
         <v>2025</v>
       </c>
       <c r="B504">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C504" t="s">
         <v>12</v>
@@ -9086,7 +9086,7 @@
         <v>2025</v>
       </c>
       <c r="B507">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C507" t="s">
         <v>12</v>
@@ -9137,7 +9137,7 @@
         <v>2025</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C510" t="s">
         <v>12</v>

--- a/descarga/stop.xlsx
+++ b/descarga/stop.xlsx
@@ -8967,7 +8967,7 @@
         <v>2025</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C500" t="s">
         <v>12</v>
@@ -8984,7 +8984,7 @@
         <v>2025</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="s">
         <v>12</v>
@@ -9001,7 +9001,7 @@
         <v>2025</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C502" t="s">
         <v>12</v>
@@ -9018,7 +9018,7 @@
         <v>2025</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C503" t="s">
         <v>12</v>
@@ -9086,7 +9086,7 @@
         <v>2025</v>
       </c>
       <c r="B507">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C507" t="s">
         <v>12</v>
